--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N2">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O2">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P2">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q2">
-        <v>24.65476171321883</v>
+        <v>11.26077109842</v>
       </c>
       <c r="R2">
-        <v>24.65476171321883</v>
+        <v>67.56462659051999</v>
       </c>
       <c r="S2">
-        <v>0.03729696905832172</v>
+        <v>0.01080412636761819</v>
       </c>
       <c r="T2">
-        <v>0.03729696905832172</v>
+        <v>0.008452143430792147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N3">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O3">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P3">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q3">
-        <v>20.49365646031262</v>
+        <v>25.622965925425</v>
       </c>
       <c r="R3">
-        <v>20.49365646031262</v>
+        <v>153.73779555255</v>
       </c>
       <c r="S3">
-        <v>0.03100217636588807</v>
+        <v>0.0245839080958061</v>
       </c>
       <c r="T3">
-        <v>0.03100217636588807</v>
+        <v>0.01923216280938157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>330.770233336439</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>330.770233336439</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.5718139577408378</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.5718139577408378</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6240420749464261</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N4">
-        <v>0.6240420749464261</v>
+        <v>1.038336</v>
       </c>
       <c r="O4">
-        <v>0.5460825143077291</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P4">
-        <v>0.5460825143077291</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q4">
-        <v>206.4145427417849</v>
+        <v>21.148285377024</v>
       </c>
       <c r="R4">
-        <v>206.4145427417849</v>
+        <v>84.59314150809601</v>
       </c>
       <c r="S4">
-        <v>0.3122576037593703</v>
+        <v>0.02029068397490813</v>
       </c>
       <c r="T4">
-        <v>0.3122576037593703</v>
+        <v>0.01058236241903607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H5">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I5">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J5">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.518719428299153</v>
+        <v>0.27644</v>
       </c>
       <c r="N5">
-        <v>0.518719428299153</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O5">
-        <v>0.4539174856922708</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P5">
-        <v>0.4539174856922708</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q5">
-        <v>171.576946334655</v>
+        <v>96.86233867893333</v>
       </c>
       <c r="R5">
-        <v>171.576946334655</v>
+        <v>871.7610481103999</v>
       </c>
       <c r="S5">
-        <v>0.2595563539814674</v>
+        <v>0.09293439482994761</v>
       </c>
       <c r="T5">
-        <v>0.2595563539814674</v>
+        <v>0.1090548381279833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H6">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I6">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J6">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6240420749464261</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N6">
-        <v>0.6240420749464261</v>
+        <v>1.88705</v>
       </c>
       <c r="O6">
-        <v>0.5460825143077291</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P6">
-        <v>0.5460825143077291</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q6">
-        <v>77.82107288878562</v>
+        <v>220.4023491584445</v>
       </c>
       <c r="R6">
-        <v>77.82107288878562</v>
+        <v>1983.621142426</v>
       </c>
       <c r="S6">
-        <v>0.117725337660118</v>
+        <v>0.2114646333910344</v>
       </c>
       <c r="T6">
-        <v>0.117725337660118</v>
+        <v>0.2481453869307516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.704849261112</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H7">
-        <v>124.704849261112</v>
+        <v>1051.17572</v>
       </c>
       <c r="I7">
-        <v>0.2155815917478311</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J7">
-        <v>0.2155815917478311</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.518719428299153</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N7">
-        <v>0.518719428299153</v>
+        <v>1.038336</v>
       </c>
       <c r="O7">
-        <v>0.4539174856922708</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P7">
-        <v>0.4539174856922708</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q7">
-        <v>64.68682811485607</v>
+        <v>181.91226540032</v>
       </c>
       <c r="R7">
-        <v>64.68682811485607</v>
+        <v>1091.47359240192</v>
       </c>
       <c r="S7">
-        <v>0.0978562540877131</v>
+        <v>0.1745353924724145</v>
       </c>
       <c r="T7">
-        <v>0.0978562540877131</v>
+        <v>0.1365402551517601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H8">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I8">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J8">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N8">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O8">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P8">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q8">
-        <v>24.56207914022261</v>
+        <v>67.40400674946666</v>
       </c>
       <c r="R8">
-        <v>24.56207914022261</v>
+        <v>606.6360607452</v>
       </c>
       <c r="S8">
-        <v>0.03715676169807649</v>
+        <v>0.06467065179108446</v>
       </c>
       <c r="T8">
-        <v>0.03715676169807649</v>
+        <v>0.07588845309223674</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.3596523797394</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H9">
-        <v>39.3596523797394</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I9">
-        <v>0.06804239418868824</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J9">
-        <v>0.06804239418868824</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N9">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O9">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P9">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q9">
-        <v>20.41661638047182</v>
+        <v>153.3723182083889</v>
       </c>
       <c r="R9">
-        <v>20.41661638047182</v>
+        <v>1380.3508638755</v>
       </c>
       <c r="S9">
-        <v>0.03088563249061174</v>
+        <v>0.1471527920011165</v>
       </c>
       <c r="T9">
-        <v>0.03088563249061174</v>
+        <v>0.172677983658546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.4013115348323</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H10">
-        <v>22.4013115348323</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I10">
-        <v>0.03872592306179204</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J10">
-        <v>0.03872592306179204</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6240420749464261</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N10">
-        <v>0.6240420749464261</v>
+        <v>1.038336</v>
       </c>
       <c r="O10">
-        <v>0.5460825143077291</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P10">
-        <v>0.5460825143077291</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q10">
-        <v>13.97936093171806</v>
+        <v>126.58806025216</v>
       </c>
       <c r="R10">
-        <v>13.97936093171806</v>
+        <v>759.5283615129601</v>
       </c>
       <c r="S10">
-        <v>0.02114754943447107</v>
+        <v>0.1214546843766233</v>
       </c>
       <c r="T10">
-        <v>0.02114754943447107</v>
+        <v>0.09501484689864076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.4013115348323</v>
+        <v>48.737294</v>
       </c>
       <c r="H11">
-        <v>22.4013115348323</v>
+        <v>146.211882</v>
       </c>
       <c r="I11">
-        <v>0.03872592306179204</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J11">
-        <v>0.03872592306179204</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.518719428299153</v>
+        <v>0.27644</v>
       </c>
       <c r="N11">
-        <v>0.518719428299153</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O11">
-        <v>0.4539174856922708</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P11">
-        <v>0.4539174856922708</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q11">
-        <v>11.61999551249943</v>
+        <v>13.47293755336</v>
       </c>
       <c r="R11">
-        <v>11.61999551249943</v>
+        <v>121.25643798024</v>
       </c>
       <c r="S11">
-        <v>0.01757837362732097</v>
+        <v>0.01292658545292286</v>
       </c>
       <c r="T11">
-        <v>0.01757837362732097</v>
+        <v>0.01516883697037618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H12">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I12">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J12">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6240420749464261</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N12">
-        <v>0.6240420749464261</v>
+        <v>1.88705</v>
       </c>
       <c r="O12">
-        <v>0.5460825143077291</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P12">
-        <v>0.5460825143077291</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q12">
-        <v>13.55017672324097</v>
+        <v>30.65657021423333</v>
       </c>
       <c r="R12">
-        <v>13.55017672324097</v>
+        <v>275.9091319281</v>
       </c>
       <c r="S12">
-        <v>0.02049829269737156</v>
+        <v>0.02941339058377717</v>
       </c>
       <c r="T12">
-        <v>0.02049829269737156</v>
+        <v>0.03451545097784735</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.7135627023294</v>
+        <v>48.737294</v>
       </c>
       <c r="H13">
-        <v>21.7135627023294</v>
+        <v>146.211882</v>
       </c>
       <c r="I13">
-        <v>0.037536987836641</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J13">
-        <v>0.037536987836641</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.518719428299153</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N13">
-        <v>0.518719428299153</v>
+        <v>1.038336</v>
       </c>
       <c r="O13">
-        <v>0.4539174856922708</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P13">
-        <v>0.4539174856922708</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q13">
-        <v>11.26324683129012</v>
+        <v>25.302843451392</v>
       </c>
       <c r="R13">
-        <v>11.26324683129012</v>
+        <v>151.817060708352</v>
       </c>
       <c r="S13">
-        <v>0.01703869513926943</v>
+        <v>0.02427676716981282</v>
       </c>
       <c r="T13">
-        <v>0.01703869513926943</v>
+        <v>0.01899188432025337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>22.832077</v>
+      </c>
+      <c r="H14">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I14">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J14">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.27644</v>
+      </c>
+      <c r="N14">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P14">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q14">
+        <v>6.311699365879998</v>
+      </c>
+      <c r="R14">
+        <v>56.80529429291999</v>
+      </c>
+      <c r="S14">
+        <v>0.006055748487148559</v>
+      </c>
+      <c r="T14">
+        <v>0.007106181432807401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>22.832077</v>
+      </c>
+      <c r="H15">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I15">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J15">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.88705</v>
+      </c>
+      <c r="O15">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P15">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q15">
+        <v>14.36175696761667</v>
+      </c>
+      <c r="R15">
+        <v>129.25581270855</v>
+      </c>
+      <c r="S15">
+        <v>0.01377936162479343</v>
+      </c>
+      <c r="T15">
+        <v>0.01616953609315971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>22.832077</v>
+      </c>
+      <c r="H16">
+        <v>68.49623099999999</v>
+      </c>
+      <c r="I16">
+        <v>0.03120810544755168</v>
+      </c>
+      <c r="J16">
+        <v>0.03217289111905</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.038336</v>
+      </c>
+      <c r="O16">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P16">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q16">
+        <v>11.853683751936</v>
+      </c>
+      <c r="R16">
+        <v>71.12210251161601</v>
+      </c>
+      <c r="S16">
+        <v>0.01137299533560969</v>
+      </c>
+      <c r="T16">
+        <v>0.008897173593082897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.082339</v>
+      </c>
+      <c r="H17">
+        <v>50.164678</v>
+      </c>
+      <c r="I17">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J17">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.27644</v>
+      </c>
+      <c r="N17">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P17">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q17">
+        <v>6.93376179316</v>
+      </c>
+      <c r="R17">
+        <v>41.60257075896</v>
+      </c>
+      <c r="S17">
+        <v>0.006652585152607768</v>
+      </c>
+      <c r="T17">
+        <v>0.005204363775670546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>25.082339</v>
+      </c>
+      <c r="H18">
+        <v>50.164678</v>
+      </c>
+      <c r="I18">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J18">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.88705</v>
+      </c>
+      <c r="O18">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P18">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q18">
+        <v>15.77720926998333</v>
+      </c>
+      <c r="R18">
+        <v>94.66325561990001</v>
+      </c>
+      <c r="S18">
+        <v>0.01513741476417847</v>
+      </c>
+      <c r="T18">
+        <v>0.01184210517397278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>25.082339</v>
+      </c>
+      <c r="H19">
+        <v>50.164678</v>
+      </c>
+      <c r="I19">
+        <v>0.03428388404538221</v>
+      </c>
+      <c r="J19">
+        <v>0.02356250409334498</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.038336</v>
+      </c>
+      <c r="O19">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P19">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q19">
+        <v>13.021947773952</v>
+      </c>
+      <c r="R19">
+        <v>52.08779109580801</v>
+      </c>
+      <c r="S19">
+        <v>0.01249388412859597</v>
+      </c>
+      <c r="T19">
+        <v>0.006516035143701651</v>
       </c>
     </row>
   </sheetData>
